--- a/biology/Zoologie/Dynamine_postverta/Dynamine_postverta.xlsx
+++ b/biology/Zoologie/Dynamine_postverta/Dynamine_postverta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dynamine postverta  est une espèce d'insectes lépidoptères de la famille des Nymphalidae, de la sous-famille des Biblidinae et du genre Dynamine . C'est l'espèce type pour le genre. La localité type est le Surinam.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dynamine postverta présente un dimorphisme sexuel de couleur. Le dessus des ailes des mâles est vert turquoise clair nacré finement bordé de marron au bord externe des ailes antérieures et sur tout le tour des ailes postérieures avec de quatre taches noires dans les parties discale et postdiscale des ailes antérieures alors que les femelles ont un dessus marron taché et rayé de blanc.
 Le revers des ailes antérieures est taché et rayé de blanc, d'ocre, de gris avec des marques bleu métallisé et celui des ailes postérieures est rayé de blanc et d'ocre avec deux gros ocelles foncés cerclés de jaune et pupillés de bleu métallisé.
@@ -547,9 +561,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Euphorbiaceae,du genre Dalechampia [1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Euphorbiaceae,du genre Dalechampia 
 </t>
         </is>
       </c>
@@ -578,10 +594,12 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Dynamine postverta est présent au Mexique, à Cuba, au Honduras, au Belize, au Brésil et au Surinam[2],[3].
-Biotope</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dynamine postverta est présent au Mexique, à Cuba, au Honduras, au Belize, au Brésil et au Surinam,.
+</t>
         </is>
       </c>
     </row>
@@ -609,27 +627,167 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dynamine postverta a été décrit par l'entomologiste hollandais Pieter Cramer en 1780 sous le nom initial de Papilio postverta[4].
-Synonyme
-Papilio postverta (Cramer, 1780) Protonyme
-Eubagis postverta (Godman &amp; Salvin, 1883) [5]
-Dynamine mylitta mylitta  (Brown &amp; Mielke, 1967)[6]
-Dynamine mylitta (Lewis, H. L., 1974) [7]
-Noms vernaculaires
-Dynamine postverta se nomme Mylitta Greenwing  en anglais et Dynamine postverta mexicana Mexican Sailor[2],[3].
-Taxinomie
-Liste des Sous-espèces [2]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dynamine postverta a été décrit par l'entomologiste hollandais Pieter Cramer en 1780 sous le nom initial de Papilio postverta.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dynamine_postverta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dynamine_postverta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papilio postverta (Cramer, 1780) Protonyme
+Eubagis postverta (Godman &amp; Salvin, 1883) 
+Dynamine mylitta mylitta  (Brown &amp; Mielke, 1967)
+Dynamine mylitta (Lewis, H. L., 1974) </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dynamine_postverta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dynamine_postverta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dynamine postverta se nomme Mylitta Greenwing  en anglais et Dynamine postverta mexicana Mexican Sailor,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dynamine_postverta</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dynamine_postverta</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Liste des Sous-espèces 
 Dynamine postverta postverta; présent au Brésil, au Surinam et en Guyane.
 Synonymie pour cette sous-espèce
 Dynamine mylitta f. uniocellata (Bryk, 1953)
 Dynamine mylitta thoenii (Anken, 1998)
 Dynamine postverta mexicane (d'Almeida, 1952); présent au Mexique au Belize et au Honduras
 Synonymie pour cette sous-espèce
-Dynamine mylitta ab. bipupillata (Röber, 1915)
-Protection
-Pas de statut de protection particulier.
+Dynamine mylitta ab. bipupillata (Röber, 1915)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dynamine_postverta</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dynamine_postverta</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
